--- a/data/filtered/filtered_amazon.xlsx
+++ b/data/filtered/filtered_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Product ID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Quarter</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Quarterly Sales</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Customer Rating</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Seller Rating</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Discount Rate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Units Sold</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Shipping Method</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Advertising Cost</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -511,49 +516,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2018</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>1200</v>
       </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
         <v>200</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>50</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>10000</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>500</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -565,49 +575,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2019</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>800</v>
       </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
         <v>50</v>
       </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
       <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
         <v>200</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>16000</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>200</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2019-02</t>
         </is>
@@ -619,49 +634,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BK3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>600</v>
       </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
       <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>30</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>15</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>100</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>6000</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>300</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -673,49 +693,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>2021</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1500</v>
       </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
         <v>120</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>8</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>30</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>45000</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>700</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
@@ -727,49 +752,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BE5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2018</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1000</v>
       </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
       <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>80</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>40</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>40000</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>400</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -781,49 +811,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>2022</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>900</v>
       </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
         <v>250</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>30</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>27000</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>600</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2022-02</t>
         </is>
@@ -835,49 +870,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BK7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>2019</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>700</v>
       </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
       <c r="F8" t="n">
         <v>5</v>
       </c>
       <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
         <v>60</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>10</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>150</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>10500</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>300</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -889,49 +929,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>2020</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1200</v>
       </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
       <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>35</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.2</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>80</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>9600</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>250</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -943,49 +988,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BE9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>2021</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1300</v>
       </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
         <v>110</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>15</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>20</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>26000</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>800</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -997,49 +1047,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>2018</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1100</v>
       </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
         <v>90</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>18</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>50</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>55000</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>450</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -1051,49 +1106,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>2019</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>950</v>
       </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
         <v>220</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>12</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>25</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>23750</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>400</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -1105,49 +1165,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BK12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>2020</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>850</v>
       </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
       <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>55</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>8</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>100</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>42500</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>300</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -1159,49 +1224,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>2021</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>750</v>
       </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
         <v>40</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>10</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>120</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>9000</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>200</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -1213,49 +1283,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BE14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>2018</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>1400</v>
       </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
       <c r="F15" t="n">
         <v>4</v>
       </c>
       <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
         <v>100</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>15</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>35</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>49000</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>700</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -1267,49 +1342,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>2019</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1050</v>
       </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
       <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>70</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>0.2</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>60</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>63000</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>400</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -1321,49 +1401,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>2020</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>800</v>
       </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
         <v>200</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>8</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>20</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>16000</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>600</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -1375,49 +1460,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BK17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>2021</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>600</v>
       </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
         <v>50</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>12</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>180</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>10800</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>250</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -1429,49 +1519,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>2018</v>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>1100</v>
       </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
       <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>30</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>18</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>40</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>44000</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>300</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -1483,49 +1578,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BE19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>2019</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1200</v>
       </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
       <c r="F20" t="n">
         <v>5</v>
       </c>
       <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
         <v>120</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>10</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>30</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>36000</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>700</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -1537,49 +1637,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>2020</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>1300</v>
       </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
         <v>80</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>15</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>25</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>32500</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>450</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -1591,49 +1696,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>E21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>2021</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>950</v>
       </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
       <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>250</v>
       </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
       <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
         <v>50</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>47500</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>300</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -1645,49 +1755,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>2018</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>850</v>
       </c>
-      <c r="E23" t="n">
-        <v>4</v>
-      </c>
       <c r="F23" t="n">
         <v>4</v>
       </c>
       <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
         <v>60</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>12</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>150</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>12750</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>200</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -1699,49 +1814,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>2019</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>750</v>
       </c>
-      <c r="E24" t="n">
-        <v>5</v>
-      </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
         <v>35</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.08</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>100</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>15000</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>250</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -1753,49 +1873,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BE24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>2020</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>1400</v>
       </c>
-      <c r="E25" t="n">
-        <v>4</v>
-      </c>
       <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>110</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20</v>
       </c>
       <c r="I25" t="n">
         <v>20</v>
       </c>
       <c r="J25" t="n">
+        <v>20</v>
+      </c>
+      <c r="K25" t="n">
         <v>28000</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>700</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -1807,49 +1932,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>B25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>2021</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>1050</v>
       </c>
-      <c r="E26" t="n">
-        <v>5</v>
-      </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
         <v>90</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>18</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>60</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>63000</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>500</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -1861,49 +1991,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>E26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>2018</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>800</v>
       </c>
-      <c r="E27" t="n">
-        <v>4</v>
-      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
         <v>200</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>10</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>40</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>16000</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>400</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -1915,49 +2050,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BK27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>2019</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>950</v>
       </c>
-      <c r="E28" t="n">
-        <v>5</v>
-      </c>
       <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>50</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>15</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>200</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>28500</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>300</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -1969,49 +2109,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>2020</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>1100</v>
       </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
         <v>30</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>8</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>80</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>8800</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>250</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -2023,49 +2168,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BE29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>2021</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1200</v>
       </c>
-      <c r="E30" t="n">
-        <v>5</v>
-      </c>
       <c r="F30" t="n">
         <v>5</v>
       </c>
       <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
         <v>120</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>12</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>25</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>30000</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>700</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -2077,49 +2227,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>2018</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>1000</v>
       </c>
-      <c r="E31" t="n">
-        <v>4</v>
-      </c>
       <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>80</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>20</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>30</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>30000</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>450</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -2131,49 +2286,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>E31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>2019</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>1000</v>
-      </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>1015</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
         <v>220</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>8</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>25</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>22500</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>600</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -2185,49 +2345,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>C32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>2020</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>750</v>
       </c>
-      <c r="E33" t="n">
-        <v>4</v>
-      </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
         <v>55</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>18</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>120</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>9000</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>300</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -2239,49 +2404,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>B33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>2021</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>1400</v>
       </c>
-      <c r="E34" t="n">
-        <v>5</v>
-      </c>
       <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>35</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>15</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>60</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>21679</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>500</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
@@ -2293,49 +2463,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BE34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>2018</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>1100</v>
       </c>
-      <c r="E35" t="n">
-        <v>4</v>
-      </c>
       <c r="F35" t="n">
         <v>4</v>
       </c>
       <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
         <v>100</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>10</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>50</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>55000</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>450</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -2347,49 +2522,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B35</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>2019</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>800</v>
       </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
       <c r="F36" t="n">
         <v>5</v>
       </c>
       <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="n">
         <v>70</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>12</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>30</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>24000</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>400</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2019-02</t>
         </is>
@@ -2401,49 +2581,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>E36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>2020</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>950</v>
       </c>
-      <c r="E37" t="n">
-        <v>4</v>
-      </c>
       <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
         <v>3</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>200</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>15</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>25</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>23750</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>600</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -2455,49 +2640,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BK37</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>2021</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>1000</v>
-      </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>1015</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" t="n">
         <v>60</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>8</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>150</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>10500</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>300</v>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
@@ -2509,49 +2699,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B38</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>2018</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>1200</v>
       </c>
-      <c r="E39" t="n">
-        <v>4</v>
-      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
         <v>30</v>
       </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
       <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="n">
         <v>80</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>9600</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>400</v>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -2563,49 +2758,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BE39</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>2019</v>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>1300</v>
       </c>
-      <c r="E40" t="n">
-        <v>5</v>
-      </c>
       <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>110</v>
-      </c>
-      <c r="H40" t="n">
-        <v>20</v>
       </c>
       <c r="I40" t="n">
         <v>20</v>
       </c>
       <c r="J40" t="n">
+        <v>20</v>
+      </c>
+      <c r="K40" t="n">
         <v>26000</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>800</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2019-02</t>
         </is>
@@ -2617,49 +2817,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B40</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>2020</v>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>1100</v>
       </c>
-      <c r="E41" t="n">
-        <v>4</v>
-      </c>
       <c r="F41" t="n">
         <v>4</v>
       </c>
       <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
         <v>90</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>18</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>50</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>55000</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>450</v>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -2671,49 +2876,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E41</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>2021</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>950</v>
       </c>
-      <c r="E42" t="n">
-        <v>5</v>
-      </c>
       <c r="F42" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>250</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>12</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>25</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>23750</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>400</v>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
@@ -2725,49 +2935,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>C42</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>2018</v>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>850</v>
       </c>
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
       <c r="F43" t="n">
         <v>4</v>
       </c>
       <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
         <v>60</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>8</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>100</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>42500</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>300</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -2779,49 +2994,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B43</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>2019</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>750</v>
       </c>
-      <c r="E44" t="n">
-        <v>5</v>
-      </c>
       <c r="F44" t="n">
         <v>5</v>
       </c>
       <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
         <v>35</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>10</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>100</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>15000</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>200</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2019-02</t>
         </is>
@@ -2833,49 +3053,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BE44</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>2020</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>1400</v>
       </c>
-      <c r="E45" t="n">
-        <v>4</v>
-      </c>
       <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
         <v>3</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>110</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>15</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>35</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>49000</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>700</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -2887,49 +3112,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B45</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>2021</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>1050</v>
       </c>
-      <c r="E46" t="n">
-        <v>5</v>
-      </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
         <v>90</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>20</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>60</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>63000</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>500</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
@@ -2941,49 +3171,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>E46</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>2018</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>800</v>
       </c>
-      <c r="E47" t="n">
-        <v>4</v>
-      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="n">
         <v>200</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>8</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>20</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>16000</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>600</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -2995,49 +3230,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BK47</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>2019</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>950</v>
       </c>
-      <c r="E48" t="n">
-        <v>5</v>
-      </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="n">
         <v>50</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>12</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>180</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>10800</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>250</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2019-02</t>
         </is>
@@ -3049,49 +3289,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B48</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>2020</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>1100</v>
       </c>
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
       <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="n">
         <v>3</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>30</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>18</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>40</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>44000</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>300</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -3103,49 +3348,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>H49</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>2021</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>1200</v>
       </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
       <c r="F50" t="n">
         <v>5</v>
       </c>
       <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
         <v>120</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>10</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>30</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>36000</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>700</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2021-04</t>
         </is>
@@ -3157,49 +3407,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B50</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>2018</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>1000</v>
-      </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>1015</v>
       </c>
       <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
         <v>3</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>80</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>18</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>60</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>63000</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>450</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2018-01</t>
         </is>
@@ -3211,49 +3466,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>E51</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>2019</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>900</v>
       </c>
-      <c r="E52" t="n">
-        <v>5</v>
-      </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
+        <v>4</v>
+      </c>
+      <c r="H52" t="n">
         <v>220</v>
       </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
       <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
         <v>50</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>47500</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>300</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2019-02</t>
         </is>
@@ -3265,49 +3525,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BK52</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>2020</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>750</v>
       </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
       <c r="F53" t="n">
         <v>4</v>
       </c>
       <c r="G53" t="n">
+        <v>4</v>
+      </c>
+      <c r="H53" t="n">
         <v>60</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>12</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>150</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>12750</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>200</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -3319,49 +3584,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B53</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>2021</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>1400</v>
       </c>
-      <c r="E54" t="n">
-        <v>5</v>
-      </c>
       <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="n">
         <v>3</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>35</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>8</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>100</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>15000</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>250</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -3373,49 +3643,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>H54</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>2018</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>1100</v>
       </c>
-      <c r="E55" t="n">
-        <v>4</v>
-      </c>
       <c r="F55" t="n">
         <v>4</v>
       </c>
       <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
         <v>100</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>15</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>20</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>26000</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>800</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -3427,49 +3702,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B55</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
         <v>2019</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>1050</v>
       </c>
-      <c r="E56" t="n">
-        <v>5</v>
-      </c>
       <c r="F56" t="n">
         <v>5</v>
       </c>
       <c r="G56" t="n">
+        <v>5</v>
+      </c>
+      <c r="H56" t="n">
         <v>70</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>20</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>60</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>63000</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>500</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -3481,49 +3761,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BK56</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>2020</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>800</v>
       </c>
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="n">
         <v>200</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>10</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>40</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>16000</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>400</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -3535,49 +3820,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>C57</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
         <v>2021</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>600</v>
       </c>
-      <c r="E58" t="n">
-        <v>5</v>
-      </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
         <v>50</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>12</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>180</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>10800</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>300</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -3589,49 +3879,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BE58</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>2018</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>1100</v>
       </c>
-      <c r="E59" t="n">
-        <v>4</v>
-      </c>
       <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
         <v>3</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>30</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>18</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>40</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>44000</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>250</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -3643,49 +3938,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>H59</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>2019</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>1200</v>
       </c>
-      <c r="E60" t="n">
-        <v>5</v>
-      </c>
       <c r="F60" t="n">
         <v>5</v>
       </c>
       <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="n">
         <v>120</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>10</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>30</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>36000</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>700</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -3697,49 +3997,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B60</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>2020</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>1300</v>
       </c>
-      <c r="E61" t="n">
-        <v>4</v>
-      </c>
       <c r="F61" t="n">
         <v>4</v>
       </c>
       <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
         <v>80</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>15</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>25</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>32500</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>450</v>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -3751,49 +4056,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BK61</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>2021</v>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>950</v>
       </c>
-      <c r="E62" t="n">
-        <v>5</v>
-      </c>
       <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="n">
         <v>3</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>250</v>
       </c>
-      <c r="H62" t="n">
-        <v>5</v>
-      </c>
       <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
         <v>50</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>47500</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>300</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -3805,49 +4115,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>C62</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
         <v>2018</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>850</v>
       </c>
-      <c r="E63" t="n">
-        <v>4</v>
-      </c>
       <c r="F63" t="n">
         <v>4</v>
       </c>
       <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
         <v>60</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>12</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>150</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>12750</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>200</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -3859,49 +4174,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BE63</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
         <v>2019</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>750</v>
       </c>
-      <c r="E64" t="n">
-        <v>5</v>
-      </c>
       <c r="F64" t="n">
         <v>5</v>
       </c>
       <c r="G64" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
         <v>35</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>8</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>100</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>15000</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>250</v>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -3913,49 +4233,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H64</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
         <v>2020</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>1400</v>
       </c>
-      <c r="E65" t="n">
-        <v>4</v>
-      </c>
       <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="n">
         <v>3</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>110</v>
-      </c>
-      <c r="H65" t="n">
-        <v>20</v>
       </c>
       <c r="I65" t="n">
         <v>20</v>
       </c>
       <c r="J65" t="n">
+        <v>20</v>
+      </c>
+      <c r="K65" t="n">
         <v>28000</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>700</v>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -3967,49 +4292,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>B65</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
         <v>2021</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>1050</v>
       </c>
-      <c r="E66" t="n">
-        <v>5</v>
-      </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="n">
         <v>90</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>18</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>60</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>63000</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>500</v>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -4021,49 +4351,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BK66</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
         <v>2018</v>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>800</v>
       </c>
-      <c r="E67" t="n">
-        <v>4</v>
-      </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="n">
         <v>200</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>10</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>40</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>16000</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>400</v>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -4075,49 +4410,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>C67</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
         <v>2019</v>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>950</v>
       </c>
-      <c r="E68" t="n">
-        <v>5</v>
-      </c>
       <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>50</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>15</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>200</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>28500</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>300</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -4129,49 +4469,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BE68</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
         <v>2020</v>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>1100</v>
       </c>
-      <c r="E69" t="n">
-        <v>4</v>
-      </c>
       <c r="F69" t="n">
         <v>4</v>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="n">
         <v>30</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>8</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>80</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>8800</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>250</v>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -4183,49 +4528,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H69</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>2021</v>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>1200</v>
       </c>
-      <c r="E70" t="n">
-        <v>5</v>
-      </c>
       <c r="F70" t="n">
         <v>5</v>
       </c>
       <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="n">
         <v>120</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>12</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>25</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>30000</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>700</v>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
@@ -4237,49 +4587,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>B70</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
         <v>2018</v>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>1000</v>
       </c>
-      <c r="E71" t="n">
-        <v>4</v>
-      </c>
       <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="n">
         <v>3</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>80</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>20</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>30</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>30000</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>450</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -4291,49 +4646,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>BK71</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
         <v>2019</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>900</v>
       </c>
-      <c r="E72" t="n">
-        <v>5</v>
-      </c>
       <c r="F72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="n">
         <v>220</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>8</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>25</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>22500</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>600</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
@@ -4345,49 +4705,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>C72</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
         <v>2020</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>750</v>
       </c>
-      <c r="E73" t="n">
-        <v>4</v>
-      </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="n">
         <v>55</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>18</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>120</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>9000</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>300</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -4399,49 +4764,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BE73</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
         <v>2021</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>1400</v>
       </c>
-      <c r="E74" t="n">
-        <v>5</v>
-      </c>
       <c r="F74" t="n">
+        <v>5</v>
+      </c>
+      <c r="G74" t="n">
         <v>3</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>35</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>15</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>60</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>21679</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>500</v>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
@@ -4453,49 +4823,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>H74</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
         <v>2018</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>1100</v>
       </c>
-      <c r="E75" t="n">
-        <v>4</v>
-      </c>
       <c r="F75" t="n">
         <v>4</v>
       </c>
       <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="n">
         <v>100</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>10</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>50</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>55000</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>450</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -4507,49 +4882,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>B75</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
         <v>2019</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>800</v>
       </c>
-      <c r="E76" t="n">
-        <v>5</v>
-      </c>
       <c r="F76" t="n">
         <v>5</v>
       </c>
       <c r="G76" t="n">
+        <v>5</v>
+      </c>
+      <c r="H76" t="n">
         <v>70</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>12</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>30</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>24000</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>400</v>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
@@ -4561,49 +4941,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BK76</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
         <v>2020</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>950</v>
       </c>
-      <c r="E77" t="n">
-        <v>4</v>
-      </c>
       <c r="F77" t="n">
+        <v>4</v>
+      </c>
+      <c r="G77" t="n">
         <v>3</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>200</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>15</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>25</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>23750</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>600</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -4615,49 +5000,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>C77</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
         <v>2021</v>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>700</v>
       </c>
-      <c r="E78" t="n">
-        <v>5</v>
-      </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="n">
         <v>60</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>8</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>150</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>10500</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>300</v>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
@@ -4669,49 +5059,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BE78</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
         <v>2018</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>1200</v>
       </c>
-      <c r="E79" t="n">
-        <v>4</v>
-      </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="n">
         <v>30</v>
       </c>
-      <c r="H79" t="n">
-        <v>5</v>
-      </c>
       <c r="I79" t="n">
+        <v>5</v>
+      </c>
+      <c r="J79" t="n">
         <v>80</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>9600</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>250</v>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -4723,49 +5118,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>H79</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>2019</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>1300</v>
       </c>
-      <c r="E80" t="n">
-        <v>5</v>
-      </c>
       <c r="F80" t="n">
+        <v>5</v>
+      </c>
+      <c r="G80" t="n">
         <v>3</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>110</v>
-      </c>
-      <c r="H80" t="n">
-        <v>20</v>
       </c>
       <c r="I80" t="n">
         <v>20</v>
       </c>
       <c r="J80" t="n">
+        <v>20</v>
+      </c>
+      <c r="K80" t="n">
         <v>26000</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>800</v>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
@@ -4777,49 +5177,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B80</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
         <v>2020</v>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>1100</v>
       </c>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
       <c r="F81" t="n">
         <v>4</v>
       </c>
       <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
         <v>90</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>18</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>50</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>55000</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>450</v>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -4831,49 +5236,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BK81</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
         <v>2021</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>950</v>
       </c>
-      <c r="E82" t="n">
-        <v>5</v>
-      </c>
       <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
         <v>3</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>250</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>12</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>25</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>23750</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>400</v>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
@@ -4885,49 +5295,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>C82</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>2018</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>850</v>
       </c>
-      <c r="E83" t="n">
-        <v>4</v>
-      </c>
       <c r="F83" t="n">
         <v>4</v>
       </c>
       <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="n">
         <v>60</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>8</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>100</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>42500</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>300</v>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -4939,49 +5354,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BE83</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
         <v>2019</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>750</v>
       </c>
-      <c r="E84" t="n">
-        <v>5</v>
-      </c>
       <c r="F84" t="n">
         <v>5</v>
       </c>
       <c r="G84" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84" t="n">
         <v>35</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>10</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>100</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>15000</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>200</v>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
@@ -4993,49 +5413,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>H84</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
         <v>2020</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>1400</v>
       </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
       <c r="F85" t="n">
+        <v>4</v>
+      </c>
+      <c r="G85" t="n">
         <v>3</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>110</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>15</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>35</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>49000</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>700</v>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -5047,49 +5472,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B85</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>2021</v>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>1050</v>
       </c>
-      <c r="E86" t="n">
-        <v>5</v>
-      </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="n">
         <v>90</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>20</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>60</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>63000</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>500</v>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
@@ -5101,49 +5531,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BK86</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
         <v>2018</v>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>800</v>
       </c>
-      <c r="E87" t="n">
-        <v>4</v>
-      </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="n">
         <v>200</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>8</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>20</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>16000</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>400</v>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -5155,49 +5590,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>C87</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
         <v>2019</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>950</v>
       </c>
-      <c r="E88" t="n">
-        <v>5</v>
-      </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="n">
         <v>50</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>12</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>180</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>10800</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>250</v>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>2019-01</t>
         </is>
@@ -5209,49 +5649,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>BE88</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
         <v>2020</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>1100</v>
       </c>
-      <c r="E89" t="n">
-        <v>4</v>
-      </c>
       <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
         <v>3</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>30</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>18</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>40</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>44000</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>300</v>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>2020-03</t>
         </is>
@@ -5263,49 +5708,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>H89</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
         <v>2021</v>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>1200</v>
       </c>
-      <c r="E90" t="n">
-        <v>5</v>
-      </c>
       <c r="F90" t="n">
         <v>5</v>
       </c>
       <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="n">
         <v>120</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>10</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>30</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>36000</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>700</v>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
@@ -5317,49 +5767,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BK90</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
         <v>2018</v>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>1000</v>
       </c>
-      <c r="E91" t="n">
-        <v>4</v>
-      </c>
       <c r="F91" t="n">
+        <v>4</v>
+      </c>
+      <c r="G91" t="n">
         <v>3</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>80</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>18</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>60</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>63000</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>450</v>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -5371,49 +5826,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BE2</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
         <v>2019</v>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>800</v>
       </c>
-      <c r="E92" t="n">
-        <v>5</v>
-      </c>
       <c r="F92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
         <v>50</v>
       </c>
-      <c r="H92" t="n">
-        <v>5</v>
-      </c>
       <c r="I92" t="n">
+        <v>5</v>
+      </c>
+      <c r="J92" t="n">
         <v>200</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>16000</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>200</v>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -5425,49 +5885,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>2020</v>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>600</v>
       </c>
-      <c r="E93" t="n">
-        <v>4</v>
-      </c>
       <c r="F93" t="n">
+        <v>4</v>
+      </c>
+      <c r="G93" t="n">
         <v>3</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>30</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>15</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>100</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>6000</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>300</v>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>2020-02</t>
         </is>
@@ -5479,49 +5944,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>H4</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
         <v>2021</v>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>1500</v>
       </c>
-      <c r="E94" t="n">
-        <v>5</v>
-      </c>
       <c r="F94" t="n">
         <v>5</v>
       </c>
       <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="n">
         <v>120</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>8</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>30</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>45000</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>700</v>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -5533,49 +6003,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BK5</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
         <v>2018</v>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>1000</v>
       </c>
-      <c r="E95" t="n">
-        <v>4</v>
-      </c>
       <c r="F95" t="n">
         <v>4</v>
       </c>
       <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="n">
         <v>80</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>12</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>40</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>40000</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>400</v>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -5587,49 +6062,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
         <v>2019</v>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>1100</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>3</v>
       </c>
-      <c r="F96" t="n">
-        <v>4</v>
-      </c>
       <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
         <v>250</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>20</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>30</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>22000</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>600</v>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -5641,49 +6121,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BE7</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>2020</v>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>750</v>
       </c>
-      <c r="E97" t="n">
-        <v>5</v>
-      </c>
       <c r="F97" t="n">
         <v>5</v>
       </c>
       <c r="G97" t="n">
+        <v>5</v>
+      </c>
+      <c r="H97" t="n">
         <v>60</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>10</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>150</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>11250</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>300</v>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>2020-02</t>
         </is>
@@ -5695,49 +6180,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>B8</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
         <v>2021</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>900</v>
       </c>
-      <c r="E98" t="n">
-        <v>4</v>
-      </c>
       <c r="F98" t="n">
+        <v>4</v>
+      </c>
+      <c r="G98" t="n">
         <v>3</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>35</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>8</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>80</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>7200</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>250</v>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -5749,49 +6239,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
         <v>2018</v>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>1400</v>
       </c>
-      <c r="E99" t="n">
-        <v>5</v>
-      </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="n">
         <v>110</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>15</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>25</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>35000</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>800</v>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -5803,49 +6298,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BK10</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
         <v>2019</v>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>950</v>
       </c>
-      <c r="E100" t="n">
-        <v>4</v>
-      </c>
       <c r="F100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G100" t="n">
         <v>3</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>70</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>12</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>45</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>42750</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>350</v>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -5857,49 +6357,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>E11</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
         <v>2020</v>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>1300</v>
       </c>
-      <c r="E101" t="n">
-        <v>4</v>
-      </c>
       <c r="F101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="n">
         <v>180</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>10</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>60</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>27880</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>450</v>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>2020-02</t>
         </is>
@@ -5911,49 +6416,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BE12</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
         <v>2021</v>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>820</v>
       </c>
-      <c r="E102" t="n">
-        <v>5</v>
-      </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
+        <v>4</v>
+      </c>
+      <c r="H102" t="n">
         <v>55</v>
       </c>
-      <c r="H102" t="n">
-        <v>5</v>
-      </c>
       <c r="I102" t="n">
+        <v>5</v>
+      </c>
+      <c r="J102" t="n">
         <v>180</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>14760</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>200</v>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -5965,49 +6475,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
         <v>2018</v>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>580</v>
-      </c>
-      <c r="E103" t="n">
-        <v>3</v>
       </c>
       <c r="F103" t="n">
         <v>3</v>
       </c>
       <c r="G103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" t="n">
         <v>40</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>18</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>90</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>5220</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>150</v>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -6019,49 +6534,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>H14</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
         <v>2019</v>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>1200</v>
       </c>
-      <c r="E104" t="n">
-        <v>4</v>
-      </c>
       <c r="F104" t="n">
         <v>4</v>
       </c>
       <c r="G104" t="n">
+        <v>4</v>
+      </c>
+      <c r="H104" t="n">
         <v>100</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>12</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>40</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>48000</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>500</v>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -6073,49 +6593,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>BK15</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
         <v>2020</v>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>880</v>
       </c>
-      <c r="E105" t="n">
-        <v>5</v>
-      </c>
       <c r="F105" t="n">
         <v>5</v>
       </c>
       <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" t="n">
         <v>75</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>8</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>30</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>26400</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>300</v>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>2020-02</t>
         </is>
@@ -6127,49 +6652,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E16</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>2021</v>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>1100</v>
       </c>
-      <c r="E106" t="n">
-        <v>4</v>
-      </c>
       <c r="F106" t="n">
+        <v>4</v>
+      </c>
+      <c r="G106" t="n">
         <v>3</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>220</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>15</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>20</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>22000</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>700</v>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -6181,49 +6711,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>BE17</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
         <v>2018</v>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>700</v>
       </c>
-      <c r="E107" t="n">
-        <v>5</v>
-      </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G107" t="n">
+        <v>4</v>
+      </c>
+      <c r="H107" t="n">
         <v>45</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>10</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>120</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>8400</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>250</v>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>2018-04</t>
         </is>
@@ -6235,49 +6770,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>B18</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
         <v>2019</v>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>950</v>
       </c>
-      <c r="E108" t="n">
-        <v>4</v>
-      </c>
       <c r="F108" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" t="n">
         <v>3</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>33</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>12</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>60</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>5700</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>180</v>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -6289,49 +6829,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>H19</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
         <v>2020</v>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="E109" t="n">
         <v>1400</v>
       </c>
-      <c r="E109" t="n">
-        <v>5</v>
-      </c>
       <c r="F109" t="n">
         <v>5</v>
       </c>
       <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="n">
         <v>120</v>
       </c>
-      <c r="H109" t="n">
-        <v>5</v>
-      </c>
       <c r="I109" t="n">
+        <v>5</v>
+      </c>
+      <c r="J109" t="n">
         <v>35</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>49000</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>800</v>
       </c>
-      <c r="N109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -6343,49 +6888,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BK20</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
         <v>2021</v>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>980</v>
       </c>
-      <c r="E110" t="n">
-        <v>4</v>
-      </c>
       <c r="F110" t="n">
+        <v>4</v>
+      </c>
+      <c r="G110" t="n">
         <v>3</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>60</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>8</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>50</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>49000</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>400</v>
       </c>
-      <c r="N110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -6397,49 +6947,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>E21</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
         <v>2018</v>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>1250</v>
       </c>
-      <c r="E111" t="n">
-        <v>5</v>
-      </c>
       <c r="F111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" t="n">
         <v>200</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>15</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>45</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>27880</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>600</v>
       </c>
-      <c r="N111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -6451,49 +7006,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BE22</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
         <v>2019</v>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>820</v>
-      </c>
-      <c r="E112" t="n">
-        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>3</v>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="n">
         <v>50</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>10</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>80</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>32800</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>250</v>
       </c>
-      <c r="N112" t="inlineStr">
+      <c r="O112" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -6505,49 +7065,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>B23</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
         <v>2020</v>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>700</v>
       </c>
-      <c r="E113" t="n">
-        <v>4</v>
-      </c>
       <c r="F113" t="n">
         <v>4</v>
       </c>
       <c r="G113" t="n">
+        <v>4</v>
+      </c>
+      <c r="H113" t="n">
         <v>40</v>
       </c>
-      <c r="H113" t="n">
-        <v>5</v>
-      </c>
       <c r="I113" t="n">
+        <v>5</v>
+      </c>
+      <c r="J113" t="n">
         <v>150</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>10500</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>200</v>
       </c>
-      <c r="N113" t="inlineStr">
+      <c r="O113" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -6559,49 +7124,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>H24</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
         <v>2021</v>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>1600</v>
       </c>
-      <c r="E114" t="n">
-        <v>5</v>
-      </c>
       <c r="F114" t="n">
         <v>5</v>
       </c>
       <c r="G114" t="n">
+        <v>5</v>
+      </c>
+      <c r="H114" t="n">
         <v>130</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>8</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>20</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>32000</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>900</v>
       </c>
-      <c r="N114" t="inlineStr">
+      <c r="O114" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -6613,49 +7183,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>BK25</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
         <v>2018</v>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>1050</v>
       </c>
-      <c r="E115" t="n">
-        <v>4</v>
-      </c>
       <c r="F115" t="n">
+        <v>4</v>
+      </c>
+      <c r="G115" t="n">
         <v>3</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>75</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>12</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>30</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>31500</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>350</v>
       </c>
-      <c r="N115" t="inlineStr">
+      <c r="O115" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -6667,49 +7242,54 @@
           <t>Electronics</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>E26</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
         <v>2019</v>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>950</v>
       </c>
-      <c r="E116" t="n">
-        <v>5</v>
-      </c>
       <c r="F116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="n">
         <v>230</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>18</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>25</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>23750</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>500</v>
       </c>
-      <c r="N116" t="inlineStr">
+      <c r="O116" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>
@@ -6721,49 +7301,54 @@
           <t>Clothing</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BE27</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
         <v>2020</v>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Q4</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>680</v>
       </c>
-      <c r="E117" t="n">
-        <v>4</v>
-      </c>
       <c r="F117" t="n">
+        <v>4</v>
+      </c>
+      <c r="G117" t="n">
         <v>3</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>55</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>8</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>70</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>4760</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>150</v>
       </c>
-      <c r="N117" t="inlineStr">
+      <c r="O117" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
@@ -6775,49 +7360,54 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>B28</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
         <v>2021</v>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>880</v>
       </c>
-      <c r="E118" t="n">
-        <v>5</v>
-      </c>
       <c r="F118" t="n">
         <v>5</v>
       </c>
       <c r="G118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" t="n">
         <v>38</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>12</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>60</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>5280</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>200</v>
       </c>
-      <c r="N118" t="inlineStr">
+      <c r="O118" t="inlineStr">
         <is>
           <t>2021-01</t>
         </is>
@@ -6829,49 +7419,54 @@
           <t>Home &amp; Kitchen</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>H29</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>2018</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>1300</v>
       </c>
-      <c r="E119" t="n">
-        <v>4</v>
-      </c>
       <c r="F119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" t="n">
         <v>3</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>90</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>15</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>25</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>32500</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>EU</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>600</v>
       </c>
-      <c r="N119" t="inlineStr">
+      <c r="O119" t="inlineStr">
         <is>
           <t>2018-02</t>
         </is>
@@ -6883,49 +7478,54 @@
           <t>Beauty</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>B30</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
         <v>2019</v>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>1100</v>
       </c>
-      <c r="E120" t="n">
-        <v>5</v>
-      </c>
       <c r="F120" t="n">
         <v>5</v>
       </c>
       <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="n">
         <v>80</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>10</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>40</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>44000</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>Express</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>Asia</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>400</v>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="O120" t="inlineStr">
         <is>
           <t>2019-03</t>
         </is>

--- a/data/filtered/filtered_amazon.xlsx
+++ b/data/filtered/filtered_amazon.xlsx
@@ -872,7 +872,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BK7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -931,7 +931,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>BK8</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -990,7 +990,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BE9</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>BE10</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BK12</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>BK13</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BE14</t>
+          <t>H14</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B15</t>
+          <t>BE15</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BK17</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>BK18</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BE19</t>
+          <t>H19</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B20</t>
+          <t>BE20</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BE24</t>
+          <t>H24</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B25</t>
+          <t>BE25</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BK27</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B28</t>
+          <t>BK28</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BE29</t>
+          <t>H29</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B30</t>
+          <t>BE30</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BE34</t>
+          <t>H34</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B35</t>
+          <t>BE35</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BK37</t>
+          <t>C37</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B38</t>
+          <t>BK38</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BE39</t>
+          <t>H39</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B40</t>
+          <t>BE40</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BE44</t>
+          <t>H44</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B45</t>
+          <t>BE45</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BK47</t>
+          <t>C47</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B48</t>
+          <t>BK48</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BK52</t>
+          <t>C52</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B53</t>
+          <t>BK53</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BK56</t>
+          <t>E56</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BE58</t>
+          <t>BK58</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B60</t>
+          <t>BE60</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BK61</t>
+          <t>E61</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BE63</t>
+          <t>BK63</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B65</t>
+          <t>BE65</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BK66</t>
+          <t>E66</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BE68</t>
+          <t>BK68</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B70</t>
+          <t>BE70</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BK71</t>
+          <t>E71</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BE73</t>
+          <t>BK73</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B75</t>
+          <t>BE75</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BK76</t>
+          <t>E76</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BE78</t>
+          <t>BK78</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B80</t>
+          <t>BE80</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BK81</t>
+          <t>E81</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BE83</t>
+          <t>BK83</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -5474,7 +5474,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B85</t>
+          <t>BE85</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BK86</t>
+          <t>E86</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BE88</t>
+          <t>BK88</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BK90</t>
+          <t>BE90</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BE2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>BK3</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BK5</t>
+          <t>BE5</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BE7</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B8</t>
+          <t>BK8</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BK10</t>
+          <t>BE10</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BE12</t>
+          <t>C12</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B13</t>
+          <t>BK13</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BK15</t>
+          <t>BE15</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BE17</t>
+          <t>C17</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B18</t>
+          <t>BK18</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BK20</t>
+          <t>BE20</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BE22</t>
+          <t>C22</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>B23</t>
+          <t>BK23</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BK25</t>
+          <t>BE25</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BE27</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B28</t>
+          <t>BK28</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>B30</t>
+          <t>BE30</t>
         </is>
       </c>
       <c r="C120" t="n">

--- a/data/filtered/filtered_amazon.xlsx
+++ b/data/filtered/filtered_amazon.xlsx
@@ -955,7 +955,7 @@
         <v>35</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
         <v>80</v>
@@ -1368,7 +1368,7 @@
         <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
         <v>60</v>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B23</t>
+          <t>BK23</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1840,7 +1840,7 @@
         <v>35</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
         <v>100</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>B33</t>
+          <t>BK33</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B43</t>
+          <t>BK43</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B50</t>
+          <t>BE50</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B55</t>
+          <t>BE55</t>
         </is>
       </c>
       <c r="C56" t="n">
